--- a/Дифузионное сглаживание/bin/Debug/net5.0/input.xlsx
+++ b/Дифузионное сглаживание/bin/Debug/net5.0/input.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Q 2008</t>
   </si>
@@ -56,6 +56,60 @@
   <si>
     <t>Q 2019</t>
   </si>
+  <si>
+    <t>Q 1956</t>
+  </si>
+  <si>
+    <t>Q 1957</t>
+  </si>
+  <si>
+    <t>Q 1958</t>
+  </si>
+  <si>
+    <t>Q 1960</t>
+  </si>
+  <si>
+    <t>Q 1964</t>
+  </si>
+  <si>
+    <t>Q 1966</t>
+  </si>
+  <si>
+    <t>Q 1967</t>
+  </si>
+  <si>
+    <t>Q 1969</t>
+  </si>
+  <si>
+    <t>Q 1972</t>
+  </si>
+  <si>
+    <t>Q 1974</t>
+  </si>
+  <si>
+    <t>Q 1975</t>
+  </si>
+  <si>
+    <t>Q 1976</t>
+  </si>
+  <si>
+    <t>Q 1979</t>
+  </si>
+  <si>
+    <t>Q 1980</t>
+  </si>
+  <si>
+    <t>Q 1981</t>
+  </si>
+  <si>
+    <t>Q 1982</t>
+  </si>
+  <si>
+    <t>Q 1983</t>
+  </si>
+  <si>
+    <t>Q 1985</t>
+  </si>
 </sst>
 </file>
 
@@ -76,18 +130,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,9 +150,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -377,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -385,1740 +432,3579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD55" sqref="AD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="T1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="V1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="W1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="X1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Y1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Z1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AA1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AB1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AD1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>22</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>12</v>
+      </c>
+      <c r="R2">
+        <v>37</v>
+      </c>
+      <c r="S2">
         <v>22.3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="T2">
         <v>28.7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="U2">
         <v>17.600000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="V2">
         <v>9.0500000000000007</v>
       </c>
-      <c r="E2" s="1">
+      <c r="W2">
         <v>5.87</v>
       </c>
-      <c r="F2" s="1">
+      <c r="X2">
         <v>11.9</v>
       </c>
-      <c r="G2" s="1">
+      <c r="Y2">
         <v>16.2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="Z2">
         <v>10.6</v>
       </c>
-      <c r="I2" s="1">
+      <c r="AA2">
         <v>18.8</v>
       </c>
-      <c r="J2" s="1">
+      <c r="AB2">
         <v>8.4499999999999993</v>
       </c>
-      <c r="K2" s="1">
+      <c r="AC2">
         <v>10.5</v>
       </c>
-      <c r="L2" s="1">
+      <c r="AD2">
         <v>11.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>16</v>
+      </c>
+      <c r="Q3">
+        <v>13</v>
+      </c>
+      <c r="R3">
+        <v>35</v>
+      </c>
+      <c r="S3">
         <v>26.3</v>
       </c>
-      <c r="B3">
+      <c r="T3">
         <v>30</v>
       </c>
-      <c r="C3">
+      <c r="U3">
         <v>21.7</v>
       </c>
-      <c r="D3">
+      <c r="V3">
         <v>9.86</v>
       </c>
-      <c r="E3">
+      <c r="W3">
         <v>5.87</v>
       </c>
-      <c r="F3">
+      <c r="X3">
         <v>13.7</v>
       </c>
-      <c r="G3">
+      <c r="Y3">
         <v>16.399999999999999</v>
       </c>
-      <c r="H3">
+      <c r="Z3">
         <v>10.6</v>
       </c>
-      <c r="I3">
+      <c r="AA3">
         <v>19.399999999999999</v>
       </c>
-      <c r="J3">
+      <c r="AB3">
         <v>8.58</v>
       </c>
-      <c r="K3">
+      <c r="AC3">
         <v>10.5</v>
       </c>
-      <c r="L3">
+      <c r="AD3">
         <v>12.6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>23</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>39</v>
+      </c>
+      <c r="S4">
         <v>29.9</v>
       </c>
-      <c r="B4">
+      <c r="T4">
         <v>32.200000000000003</v>
       </c>
-      <c r="C4">
+      <c r="U4">
         <v>26.4</v>
       </c>
-      <c r="D4">
+      <c r="V4">
         <v>10.9</v>
       </c>
-      <c r="E4">
+      <c r="W4">
         <v>6.21</v>
       </c>
-      <c r="F4">
+      <c r="X4">
         <v>16</v>
       </c>
-      <c r="G4">
+      <c r="Y4">
         <v>16.600000000000001</v>
       </c>
-      <c r="H4">
+      <c r="Z4">
         <v>10.6</v>
       </c>
-      <c r="I4">
+      <c r="AA4">
         <v>19.5</v>
       </c>
-      <c r="J4">
+      <c r="AB4">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="AC4">
         <v>10.7</v>
       </c>
-      <c r="L4">
+      <c r="AD4">
         <v>14.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>38</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+      <c r="O5">
+        <v>33</v>
+      </c>
+      <c r="P5">
+        <v>29</v>
+      </c>
+      <c r="Q5">
+        <v>19</v>
+      </c>
+      <c r="R5">
+        <v>43</v>
+      </c>
+      <c r="S5">
         <v>36.6</v>
       </c>
-      <c r="B5">
+      <c r="T5">
         <v>34.200000000000003</v>
       </c>
-      <c r="C5">
+      <c r="U5">
         <v>33.200000000000003</v>
       </c>
-      <c r="D5">
+      <c r="V5">
         <v>11.9</v>
       </c>
-      <c r="E5">
+      <c r="W5">
         <v>6.8</v>
       </c>
-      <c r="F5">
+      <c r="X5">
         <v>18.8</v>
       </c>
-      <c r="G5">
+      <c r="Y5">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="Z5">
         <v>10.8</v>
       </c>
-      <c r="I5">
+      <c r="AA5">
         <v>20.7</v>
       </c>
-      <c r="J5">
+      <c r="AB5">
         <v>10.8</v>
       </c>
-      <c r="K5">
+      <c r="AC5">
         <v>10.7</v>
       </c>
-      <c r="L5">
+      <c r="AD5">
         <v>15.6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>68</v>
+      </c>
+      <c r="N6">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>39</v>
+      </c>
+      <c r="P6">
+        <v>37</v>
+      </c>
+      <c r="Q6">
+        <v>27</v>
+      </c>
+      <c r="R6">
+        <v>53</v>
+      </c>
+      <c r="S6">
         <v>47.9</v>
       </c>
-      <c r="B6">
+      <c r="T6">
         <v>35.700000000000003</v>
       </c>
-      <c r="C6">
+      <c r="U6">
         <v>41.4</v>
       </c>
-      <c r="D6">
+      <c r="V6">
         <v>13.1</v>
       </c>
-      <c r="E6">
+      <c r="W6">
         <v>7.2</v>
       </c>
-      <c r="F6">
+      <c r="X6">
         <v>20.8</v>
       </c>
-      <c r="G6">
+      <c r="Y6">
         <v>18</v>
       </c>
-      <c r="H6">
+      <c r="Z6">
         <v>11.4</v>
       </c>
-      <c r="I6">
+      <c r="AA6">
         <v>23.1</v>
       </c>
-      <c r="J6">
+      <c r="AB6">
         <v>12.7</v>
       </c>
-      <c r="K6">
+      <c r="AC6">
         <v>11</v>
       </c>
-      <c r="L6">
+      <c r="AD6">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>17</v>
+      </c>
+      <c r="M7">
+        <v>128</v>
+      </c>
+      <c r="N7">
+        <v>28</v>
+      </c>
+      <c r="O7">
+        <v>49</v>
+      </c>
+      <c r="P7">
+        <v>48</v>
+      </c>
+      <c r="Q7">
+        <v>37</v>
+      </c>
+      <c r="R7">
+        <v>72</v>
+      </c>
+      <c r="S7">
         <v>58.8</v>
       </c>
-      <c r="B7">
+      <c r="T7">
         <v>36.5</v>
       </c>
-      <c r="C7">
+      <c r="U7">
         <v>49.1</v>
       </c>
-      <c r="D7">
+      <c r="V7">
         <v>15</v>
       </c>
-      <c r="E7">
+      <c r="W7">
         <v>7.79</v>
       </c>
-      <c r="F7">
+      <c r="X7">
         <v>21.9</v>
       </c>
-      <c r="G7">
+      <c r="Y7">
         <v>19.5</v>
       </c>
-      <c r="H7">
+      <c r="Z7">
         <v>11.5</v>
       </c>
-      <c r="I7">
+      <c r="AA7">
         <v>26.6</v>
       </c>
-      <c r="J7">
+      <c r="AB7">
         <v>14</v>
       </c>
-      <c r="K7">
+      <c r="AC7">
         <v>11.4</v>
       </c>
-      <c r="L7">
+      <c r="AD7">
         <v>18.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <v>114</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>36</v>
+      </c>
+      <c r="J8">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>28</v>
+      </c>
+      <c r="L8">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>243</v>
+      </c>
+      <c r="N8">
+        <v>46</v>
+      </c>
+      <c r="O8">
+        <v>67</v>
+      </c>
+      <c r="P8">
+        <v>69</v>
+      </c>
+      <c r="Q8">
+        <v>54</v>
+      </c>
+      <c r="R8">
+        <v>92</v>
+      </c>
+      <c r="S8">
         <v>82.2</v>
       </c>
-      <c r="B8">
+      <c r="T8">
         <v>37.4</v>
       </c>
-      <c r="C8">
+      <c r="U8">
         <v>59.3</v>
       </c>
-      <c r="D8">
+      <c r="V8">
         <v>18.2</v>
       </c>
-      <c r="E8">
+      <c r="W8">
         <v>7.98</v>
       </c>
-      <c r="F8">
+      <c r="X8">
         <v>22.6</v>
       </c>
-      <c r="G8">
+      <c r="Y8">
         <v>21.3</v>
       </c>
-      <c r="H8">
+      <c r="Z8">
         <v>12.3</v>
       </c>
-      <c r="I8">
+      <c r="AA8">
         <v>31.8</v>
       </c>
-      <c r="J8">
+      <c r="AB8">
         <v>15.8</v>
       </c>
-      <c r="K8">
+      <c r="AC8">
         <v>11.9</v>
       </c>
-      <c r="L8">
+      <c r="AD8">
         <v>20.8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>172</v>
+      </c>
+      <c r="C9">
+        <v>94</v>
+      </c>
+      <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>73</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>41</v>
+      </c>
+      <c r="L9">
+        <v>32</v>
+      </c>
+      <c r="M9">
+        <v>471</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>101</v>
+      </c>
+      <c r="P9">
+        <v>99</v>
+      </c>
+      <c r="Q9">
+        <v>73</v>
+      </c>
+      <c r="R9">
+        <v>130</v>
+      </c>
+      <c r="S9">
         <v>129</v>
       </c>
-      <c r="B9">
+      <c r="T9">
         <v>39</v>
       </c>
-      <c r="C9">
+      <c r="U9">
         <v>70.400000000000006</v>
       </c>
-      <c r="D9">
+      <c r="V9">
         <v>23.3</v>
       </c>
-      <c r="E9">
+      <c r="W9">
         <v>8.58</v>
       </c>
-      <c r="F9">
+      <c r="X9">
         <v>23.3</v>
       </c>
-      <c r="G9">
+      <c r="Y9">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="Z9">
         <v>13.3</v>
       </c>
-      <c r="I9">
+      <c r="AA9">
         <v>37.6</v>
       </c>
-      <c r="J9">
+      <c r="AB9">
         <v>17.600000000000001</v>
       </c>
-      <c r="K9">
+      <c r="AC9">
         <v>12.2</v>
       </c>
-      <c r="L9">
+      <c r="AD9">
         <v>25.4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>83</v>
+      </c>
+      <c r="B10">
+        <v>241</v>
+      </c>
+      <c r="C10">
+        <v>124</v>
+      </c>
+      <c r="D10">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>83</v>
+      </c>
+      <c r="I10">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>83</v>
+      </c>
+      <c r="K10">
+        <v>56</v>
+      </c>
+      <c r="L10">
+        <v>44</v>
+      </c>
+      <c r="M10">
+        <v>842</v>
+      </c>
+      <c r="N10">
+        <v>132</v>
+      </c>
+      <c r="O10">
+        <v>162</v>
+      </c>
+      <c r="P10">
+        <v>148</v>
+      </c>
+      <c r="Q10">
+        <v>105</v>
+      </c>
+      <c r="R10">
+        <v>207</v>
+      </c>
+      <c r="S10">
         <v>195</v>
       </c>
-      <c r="B10">
+      <c r="T10">
         <v>40.200000000000003</v>
       </c>
-      <c r="C10">
+      <c r="U10">
         <v>89.7</v>
       </c>
-      <c r="D10">
+      <c r="V10">
         <v>30.8</v>
       </c>
-      <c r="E10">
+      <c r="W10">
         <v>8.7799999999999994</v>
       </c>
-      <c r="F10">
+      <c r="X10">
         <v>23.2</v>
       </c>
-      <c r="G10">
+      <c r="Y10">
         <v>28.3</v>
       </c>
-      <c r="H10">
+      <c r="Z10">
         <v>14.7</v>
       </c>
-      <c r="I10">
+      <c r="AA10">
         <v>43</v>
       </c>
-      <c r="J10">
+      <c r="AB10">
         <v>20.5</v>
       </c>
-      <c r="K10">
+      <c r="AC10">
         <v>13.1</v>
       </c>
-      <c r="L10">
+      <c r="AD10">
         <v>29.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>119</v>
+      </c>
+      <c r="B11">
+        <v>306</v>
+      </c>
+      <c r="C11">
+        <v>149</v>
+      </c>
+      <c r="D11">
+        <v>85</v>
+      </c>
+      <c r="E11">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>135</v>
+      </c>
+      <c r="G11">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>127</v>
+      </c>
+      <c r="I11">
+        <v>61</v>
+      </c>
+      <c r="J11">
+        <v>153</v>
+      </c>
+      <c r="K11">
+        <v>74</v>
+      </c>
+      <c r="L11">
+        <v>61</v>
+      </c>
+      <c r="M11">
+        <v>922</v>
+      </c>
+      <c r="N11">
+        <v>229</v>
+      </c>
+      <c r="O11">
+        <v>260</v>
+      </c>
+      <c r="P11">
+        <v>220</v>
+      </c>
+      <c r="Q11">
+        <v>146</v>
+      </c>
+      <c r="R11">
+        <v>353</v>
+      </c>
+      <c r="S11">
         <v>238</v>
       </c>
-      <c r="B11">
+      <c r="T11">
         <v>43</v>
       </c>
-      <c r="C11">
+      <c r="U11">
         <v>110</v>
       </c>
-      <c r="D11">
+      <c r="V11">
         <v>41.7</v>
       </c>
-      <c r="E11">
+      <c r="W11">
         <v>9.64</v>
       </c>
-      <c r="F11">
+      <c r="X11">
         <v>23.1</v>
       </c>
-      <c r="G11">
+      <c r="Y11">
         <v>36.4</v>
       </c>
-      <c r="H11">
+      <c r="Z11">
         <v>16.899999999999999</v>
       </c>
-      <c r="I11">
+      <c r="AA11">
         <v>51.3</v>
       </c>
-      <c r="J11">
+      <c r="AB11">
         <v>22.5</v>
       </c>
-      <c r="K11">
+      <c r="AC11">
         <v>14.6</v>
       </c>
-      <c r="L11">
+      <c r="AD11">
         <v>35.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>190</v>
+      </c>
+      <c r="B12">
+        <v>375</v>
+      </c>
+      <c r="C12">
+        <v>157</v>
+      </c>
+      <c r="D12">
+        <v>133</v>
+      </c>
+      <c r="E12">
+        <v>69</v>
+      </c>
+      <c r="F12">
+        <v>182</v>
+      </c>
+      <c r="G12">
+        <v>69</v>
+      </c>
+      <c r="H12">
+        <v>202</v>
+      </c>
+      <c r="I12">
+        <v>81</v>
+      </c>
+      <c r="J12">
+        <v>286</v>
+      </c>
+      <c r="K12">
+        <v>94</v>
+      </c>
+      <c r="L12">
+        <v>82</v>
+      </c>
+      <c r="M12">
+        <v>922</v>
+      </c>
+      <c r="N12">
+        <v>294</v>
+      </c>
+      <c r="O12">
+        <v>410</v>
+      </c>
+      <c r="P12">
+        <v>368</v>
+      </c>
+      <c r="Q12">
+        <v>188</v>
+      </c>
+      <c r="R12">
+        <v>484</v>
+      </c>
+      <c r="S12">
         <v>264</v>
       </c>
-      <c r="B12">
+      <c r="T12">
         <v>47.7</v>
       </c>
-      <c r="C12">
+      <c r="U12">
         <v>126</v>
       </c>
-      <c r="D12">
+      <c r="V12">
         <v>54.8</v>
       </c>
-      <c r="E12">
+      <c r="W12">
         <v>10.8</v>
       </c>
-      <c r="F12">
+      <c r="X12">
         <v>22.4</v>
       </c>
-      <c r="G12">
+      <c r="Y12">
         <v>52</v>
       </c>
-      <c r="H12">
+      <c r="Z12">
         <v>19.7</v>
       </c>
-      <c r="I12">
+      <c r="AA12">
         <v>60.3</v>
       </c>
-      <c r="J12">
+      <c r="AB12">
         <v>25.3</v>
       </c>
-      <c r="K12">
+      <c r="AC12">
         <v>16.8</v>
       </c>
-      <c r="L12">
+      <c r="AD12">
         <v>41.8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>211</v>
+      </c>
+      <c r="B13">
+        <v>477</v>
+      </c>
+      <c r="C13">
+        <v>165</v>
+      </c>
+      <c r="D13">
+        <v>206</v>
+      </c>
+      <c r="E13">
+        <v>85</v>
+      </c>
+      <c r="F13">
+        <v>243</v>
+      </c>
+      <c r="G13">
+        <v>92</v>
+      </c>
+      <c r="H13">
+        <v>263</v>
+      </c>
+      <c r="I13">
+        <v>106</v>
+      </c>
+      <c r="J13">
+        <v>345</v>
+      </c>
+      <c r="K13">
+        <v>125</v>
+      </c>
+      <c r="L13">
+        <v>102</v>
+      </c>
+      <c r="M13">
+        <v>865</v>
+      </c>
+      <c r="N13">
+        <v>376</v>
+      </c>
+      <c r="O13">
+        <v>480</v>
+      </c>
+      <c r="P13">
+        <v>408</v>
+      </c>
+      <c r="Q13">
+        <v>290</v>
+      </c>
+      <c r="R13">
+        <v>697</v>
+      </c>
+      <c r="S13">
         <v>307</v>
       </c>
-      <c r="B13">
+      <c r="T13">
         <v>58.3</v>
       </c>
-      <c r="C13">
+      <c r="U13">
         <v>141</v>
       </c>
-      <c r="D13">
+      <c r="V13">
         <v>76</v>
       </c>
-      <c r="E13">
+      <c r="W13">
         <v>11.8</v>
       </c>
-      <c r="F13">
+      <c r="X13">
         <v>22.5</v>
       </c>
-      <c r="G13">
+      <c r="Y13">
         <v>74.599999999999994</v>
       </c>
-      <c r="H13">
+      <c r="Z13">
         <v>23</v>
       </c>
-      <c r="I13">
+      <c r="AA13">
         <v>78.8</v>
       </c>
-      <c r="J13">
+      <c r="AB13">
         <v>28.9</v>
       </c>
-      <c r="K13">
+      <c r="AC13">
         <v>18.899999999999999</v>
       </c>
-      <c r="L13">
+      <c r="AD13">
         <v>51.3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>221</v>
+      </c>
+      <c r="B14">
+        <v>562</v>
+      </c>
+      <c r="C14">
+        <v>175</v>
+      </c>
+      <c r="D14">
+        <v>326</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>355</v>
+      </c>
+      <c r="G14">
+        <v>124</v>
+      </c>
+      <c r="H14">
+        <v>329</v>
+      </c>
+      <c r="I14">
+        <v>135</v>
+      </c>
+      <c r="J14">
+        <v>387</v>
+      </c>
+      <c r="K14">
+        <v>167</v>
+      </c>
+      <c r="L14">
+        <v>144</v>
+      </c>
+      <c r="M14">
+        <v>799</v>
+      </c>
+      <c r="N14">
+        <v>452</v>
+      </c>
+      <c r="O14">
+        <v>568</v>
+      </c>
+      <c r="P14">
+        <v>467</v>
+      </c>
+      <c r="Q14">
         <v>332</v>
       </c>
-      <c r="B14">
+      <c r="R14">
+        <v>780</v>
+      </c>
+      <c r="S14">
+        <v>332</v>
+      </c>
+      <c r="T14">
         <v>73.7</v>
       </c>
-      <c r="C14">
+      <c r="U14">
         <v>166</v>
       </c>
-      <c r="D14">
+      <c r="V14">
         <v>101</v>
       </c>
-      <c r="E14">
+      <c r="W14">
         <v>13.3</v>
       </c>
-      <c r="F14">
+      <c r="X14">
         <v>23.1</v>
       </c>
-      <c r="G14">
+      <c r="Y14">
         <v>108</v>
       </c>
-      <c r="H14">
+      <c r="Z14">
         <v>28</v>
       </c>
-      <c r="I14">
+      <c r="AA14">
         <v>102</v>
       </c>
-      <c r="J14">
+      <c r="AB14">
         <v>31.6</v>
       </c>
-      <c r="K14">
+      <c r="AC14">
         <v>21.6</v>
       </c>
-      <c r="L14">
+      <c r="AD14">
         <v>60.4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>346</v>
+        <v>233</v>
       </c>
       <c r="B15">
-        <v>93.6</v>
+        <v>617</v>
       </c>
       <c r="C15">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D15">
-        <v>142</v>
+        <v>364</v>
       </c>
       <c r="E15">
-        <v>16.2</v>
+        <v>124</v>
       </c>
       <c r="F15">
-        <v>23.9</v>
+        <v>384</v>
       </c>
       <c r="G15">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H15">
-        <v>36.6</v>
+        <v>353</v>
       </c>
       <c r="I15">
         <v>169</v>
       </c>
       <c r="J15">
+        <v>463</v>
+      </c>
+      <c r="K15">
+        <v>230</v>
+      </c>
+      <c r="L15">
+        <v>184</v>
+      </c>
+      <c r="M15">
+        <v>733</v>
+      </c>
+      <c r="N15">
+        <v>460</v>
+      </c>
+      <c r="O15">
+        <v>692</v>
+      </c>
+      <c r="P15">
+        <v>553</v>
+      </c>
+      <c r="Q15">
+        <v>352</v>
+      </c>
+      <c r="R15">
+        <v>915</v>
+      </c>
+      <c r="S15">
+        <v>346</v>
+      </c>
+      <c r="T15">
+        <v>93.6</v>
+      </c>
+      <c r="U15">
+        <v>209</v>
+      </c>
+      <c r="V15">
+        <v>142</v>
+      </c>
+      <c r="W15">
+        <v>16.2</v>
+      </c>
+      <c r="X15">
+        <v>23.9</v>
+      </c>
+      <c r="Y15">
+        <v>184</v>
+      </c>
+      <c r="Z15">
+        <v>36.6</v>
+      </c>
+      <c r="AA15">
+        <v>169</v>
+      </c>
+      <c r="AB15">
         <v>36.4</v>
       </c>
-      <c r="K15">
+      <c r="AC15">
         <v>24.7</v>
       </c>
-      <c r="L15">
+      <c r="AD15">
         <v>71.7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>243</v>
+      </c>
+      <c r="B16">
+        <v>631</v>
+      </c>
+      <c r="C16">
+        <v>203</v>
+      </c>
+      <c r="D16">
+        <v>387</v>
+      </c>
+      <c r="E16">
+        <v>152</v>
+      </c>
+      <c r="F16">
+        <v>417</v>
+      </c>
+      <c r="G16">
+        <v>206</v>
+      </c>
+      <c r="H16">
+        <v>391</v>
+      </c>
+      <c r="I16">
+        <v>223</v>
+      </c>
+      <c r="J16">
+        <v>499</v>
+      </c>
+      <c r="K16">
+        <v>258</v>
+      </c>
+      <c r="L16">
+        <v>223</v>
+      </c>
+      <c r="M16">
+        <v>639</v>
+      </c>
+      <c r="N16">
+        <v>456</v>
+      </c>
+      <c r="O16">
+        <v>706</v>
+      </c>
+      <c r="P16">
+        <v>632</v>
+      </c>
+      <c r="Q16">
+        <v>366</v>
+      </c>
+      <c r="R16">
+        <v>975</v>
+      </c>
+      <c r="S16">
         <v>351</v>
       </c>
-      <c r="B16">
+      <c r="T16">
         <v>125</v>
       </c>
-      <c r="C16">
+      <c r="U16">
         <v>248</v>
       </c>
-      <c r="D16">
+      <c r="V16">
         <v>183</v>
       </c>
-      <c r="E16">
+      <c r="W16">
         <v>21.3</v>
       </c>
-      <c r="F16">
+      <c r="X16">
         <v>26</v>
       </c>
-      <c r="G16">
+      <c r="Y16">
         <v>239</v>
       </c>
-      <c r="H16">
+      <c r="Z16">
         <v>47.8</v>
       </c>
-      <c r="I16">
+      <c r="AA16">
         <v>295</v>
       </c>
-      <c r="J16">
+      <c r="AB16">
         <v>44.8</v>
       </c>
-      <c r="K16">
+      <c r="AC16">
         <v>28.6</v>
       </c>
-      <c r="L16">
+      <c r="AD16">
         <v>87.2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>252</v>
+      </c>
+      <c r="B17">
+        <v>589</v>
+      </c>
+      <c r="C17">
+        <v>219</v>
+      </c>
+      <c r="D17">
+        <v>405</v>
+      </c>
+      <c r="E17">
+        <v>176</v>
+      </c>
+      <c r="F17">
+        <v>459</v>
+      </c>
+      <c r="G17">
+        <v>185</v>
+      </c>
+      <c r="H17">
+        <v>449</v>
+      </c>
+      <c r="I17">
+        <v>329</v>
+      </c>
+      <c r="J17">
+        <v>510</v>
+      </c>
+      <c r="K17">
+        <v>281</v>
+      </c>
+      <c r="L17">
+        <v>285</v>
+      </c>
+      <c r="M17">
+        <v>536</v>
+      </c>
+      <c r="N17">
+        <v>431</v>
+      </c>
+      <c r="O17">
+        <v>714</v>
+      </c>
+      <c r="P17">
+        <v>674</v>
+      </c>
+      <c r="Q17">
+        <v>367</v>
+      </c>
+      <c r="R17">
+        <v>970</v>
+      </c>
+      <c r="S17">
         <v>348</v>
       </c>
-      <c r="B17">
+      <c r="T17">
         <v>158</v>
       </c>
-      <c r="C17">
+      <c r="U17">
         <v>304</v>
       </c>
-      <c r="D17">
+      <c r="V17">
         <v>244</v>
       </c>
-      <c r="E17">
+      <c r="W17">
         <v>28.4</v>
       </c>
-      <c r="F17">
+      <c r="X17">
         <v>33.299999999999997</v>
       </c>
-      <c r="G17">
+      <c r="Y17">
         <v>280</v>
       </c>
-      <c r="H17">
+      <c r="Z17">
         <v>61.2</v>
       </c>
-      <c r="I17">
+      <c r="AA17">
         <v>342</v>
       </c>
-      <c r="J17">
+      <c r="AB17">
         <v>51.5</v>
       </c>
-      <c r="K17">
+      <c r="AC17">
         <v>34.799999999999997</v>
       </c>
-      <c r="L17">
+      <c r="AD17">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>258</v>
+      </c>
+      <c r="B18">
+        <v>561</v>
+      </c>
+      <c r="C18">
+        <v>237</v>
+      </c>
+      <c r="D18">
+        <v>423</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
+      <c r="F18">
+        <v>490</v>
+      </c>
+      <c r="G18">
+        <v>226</v>
+      </c>
+      <c r="H18">
+        <v>503</v>
+      </c>
+      <c r="I18">
+        <v>416</v>
+      </c>
+      <c r="J18">
+        <v>366</v>
+      </c>
+      <c r="K18">
+        <v>291</v>
+      </c>
+      <c r="L18">
+        <v>339</v>
+      </c>
+      <c r="M18">
+        <v>445</v>
+      </c>
+      <c r="N18">
+        <v>395</v>
+      </c>
+      <c r="O18">
+        <v>711</v>
+      </c>
+      <c r="P18">
+        <v>692</v>
+      </c>
+      <c r="Q18">
+        <v>349</v>
+      </c>
+      <c r="R18">
+        <v>910</v>
+      </c>
+      <c r="S18">
         <v>343</v>
       </c>
-      <c r="B18">
+      <c r="T18">
         <v>206</v>
       </c>
-      <c r="C18">
+      <c r="U18">
         <v>361</v>
       </c>
-      <c r="D18">
+      <c r="V18">
         <v>294</v>
       </c>
-      <c r="E18">
+      <c r="W18">
         <v>34.6</v>
       </c>
-      <c r="F18">
+      <c r="X18">
         <v>47.8</v>
       </c>
-      <c r="G18">
+      <c r="Y18">
         <v>318</v>
       </c>
-      <c r="H18">
+      <c r="Z18">
         <v>78</v>
       </c>
-      <c r="I18">
+      <c r="AA18">
         <v>501</v>
       </c>
-      <c r="J18">
+      <c r="AB18">
         <v>67.400000000000006</v>
       </c>
-      <c r="K18">
+      <c r="AC18">
         <v>40.5</v>
       </c>
-      <c r="L18">
+      <c r="AD18">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>268</v>
+      </c>
+      <c r="B19">
+        <v>521</v>
+      </c>
+      <c r="C19">
+        <v>254</v>
+      </c>
+      <c r="D19">
+        <v>439</v>
+      </c>
+      <c r="E19">
+        <v>253</v>
+      </c>
+      <c r="F19">
+        <v>518</v>
+      </c>
+      <c r="G19">
+        <v>229</v>
+      </c>
+      <c r="H19">
+        <v>512</v>
+      </c>
+      <c r="I19">
+        <v>452</v>
+      </c>
+      <c r="J19">
+        <v>338</v>
+      </c>
+      <c r="K19">
+        <v>294</v>
+      </c>
+      <c r="L19">
+        <v>379</v>
+      </c>
+      <c r="M19">
+        <v>372</v>
+      </c>
+      <c r="N19">
+        <v>357</v>
+      </c>
+      <c r="O19">
+        <v>692</v>
+      </c>
+      <c r="P19">
+        <v>693</v>
+      </c>
+      <c r="Q19">
+        <v>323</v>
+      </c>
+      <c r="R19">
+        <v>810</v>
+      </c>
+      <c r="S19">
         <v>337</v>
       </c>
-      <c r="B19">
+      <c r="T19">
         <v>260</v>
       </c>
-      <c r="C19">
+      <c r="U19">
         <v>419</v>
       </c>
-      <c r="D19">
+      <c r="V19">
         <v>304</v>
       </c>
-      <c r="E19">
+      <c r="W19">
         <v>49.1</v>
       </c>
-      <c r="F19">
+      <c r="X19">
         <v>64.900000000000006</v>
       </c>
-      <c r="G19">
+      <c r="Y19">
         <v>357</v>
       </c>
-      <c r="H19">
+      <c r="Z19">
         <v>104</v>
       </c>
-      <c r="I19">
+      <c r="AA19">
         <v>593</v>
       </c>
-      <c r="J19">
+      <c r="AB19">
         <v>79.2</v>
       </c>
-      <c r="K19">
+      <c r="AC19">
         <v>46.6</v>
       </c>
-      <c r="L19">
+      <c r="AD19">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>284</v>
+      </c>
+      <c r="B20">
+        <v>484</v>
+      </c>
+      <c r="C20">
+        <v>274</v>
+      </c>
+      <c r="D20">
+        <v>446</v>
+      </c>
+      <c r="E20">
+        <v>290</v>
+      </c>
+      <c r="F20">
+        <v>526</v>
+      </c>
+      <c r="G20">
+        <v>234</v>
+      </c>
+      <c r="H20">
+        <v>501</v>
+      </c>
+      <c r="I20">
+        <v>498</v>
+      </c>
+      <c r="J20">
+        <v>302</v>
+      </c>
+      <c r="K20">
+        <v>286</v>
+      </c>
+      <c r="L20">
+        <v>438</v>
+      </c>
+      <c r="M20">
+        <v>332</v>
+      </c>
+      <c r="N20">
+        <v>315</v>
+      </c>
+      <c r="O20">
+        <v>640</v>
+      </c>
+      <c r="P20">
+        <v>576</v>
+      </c>
+      <c r="Q20">
+        <v>286</v>
+      </c>
+      <c r="R20">
+        <v>693</v>
+      </c>
+      <c r="S20">
         <v>336</v>
       </c>
-      <c r="B20">
+      <c r="T20">
         <v>324</v>
       </c>
-      <c r="C20">
+      <c r="U20">
         <v>458</v>
       </c>
-      <c r="D20">
+      <c r="V20">
         <v>312</v>
       </c>
-      <c r="E20">
+      <c r="W20">
         <v>66</v>
       </c>
-      <c r="F20">
+      <c r="X20">
         <v>93.4</v>
       </c>
-      <c r="G20">
+      <c r="Y20">
         <v>392</v>
       </c>
-      <c r="H20">
+      <c r="Z20">
         <v>139</v>
       </c>
-      <c r="I20">
+      <c r="AA20">
         <v>645</v>
       </c>
-      <c r="J20">
+      <c r="AB20">
         <v>94</v>
       </c>
-      <c r="K20">
+      <c r="AC20">
         <v>52</v>
       </c>
-      <c r="L20">
+      <c r="AD20">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>307</v>
+      </c>
+      <c r="B21">
+        <v>452</v>
+      </c>
+      <c r="C21">
+        <v>296</v>
+      </c>
+      <c r="D21">
+        <v>415</v>
+      </c>
+      <c r="E21">
+        <v>320</v>
+      </c>
+      <c r="F21">
+        <v>526</v>
+      </c>
+      <c r="G21">
+        <v>192</v>
+      </c>
+      <c r="H21">
+        <v>452</v>
+      </c>
+      <c r="I21">
+        <v>542</v>
+      </c>
+      <c r="J21">
+        <v>273</v>
+      </c>
+      <c r="K21">
+        <v>272</v>
+      </c>
+      <c r="L21">
+        <v>474</v>
+      </c>
+      <c r="M21">
+        <v>303</v>
+      </c>
+      <c r="N21">
+        <v>278</v>
+      </c>
+      <c r="O21">
+        <v>585</v>
+      </c>
+      <c r="P21">
+        <v>526</v>
+      </c>
+      <c r="Q21">
+        <v>272</v>
+      </c>
+      <c r="R21">
+        <v>560</v>
+      </c>
+      <c r="S21">
         <v>341</v>
       </c>
-      <c r="B21">
+      <c r="T21">
         <v>321</v>
       </c>
-      <c r="C21">
+      <c r="U21">
         <v>470</v>
       </c>
-      <c r="D21">
+      <c r="V21">
         <v>315</v>
       </c>
-      <c r="E21">
+      <c r="W21">
         <v>84.6</v>
       </c>
-      <c r="F21">
+      <c r="X21">
         <v>132</v>
       </c>
-      <c r="G21">
+      <c r="Y21">
         <v>418</v>
       </c>
-      <c r="H21">
+      <c r="Z21">
         <v>178</v>
       </c>
-      <c r="I21">
+      <c r="AA21">
         <v>685</v>
       </c>
-      <c r="J21">
+      <c r="AB21">
         <v>111</v>
       </c>
-      <c r="K21">
+      <c r="AC21">
         <v>57.7</v>
       </c>
-      <c r="L21">
+      <c r="AD21">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>332</v>
+      </c>
+      <c r="B22">
+        <v>419</v>
+      </c>
+      <c r="C22">
+        <v>318</v>
+      </c>
+      <c r="D22">
+        <v>399</v>
+      </c>
+      <c r="E22">
+        <v>358</v>
+      </c>
+      <c r="F22">
+        <v>472</v>
+      </c>
+      <c r="G22">
+        <v>178</v>
+      </c>
+      <c r="H22">
+        <v>372</v>
+      </c>
+      <c r="I22">
+        <v>570</v>
+      </c>
+      <c r="J22">
+        <v>254</v>
+      </c>
+      <c r="K22">
+        <v>252</v>
+      </c>
+      <c r="L22">
+        <v>476</v>
+      </c>
+      <c r="M22">
+        <v>259</v>
+      </c>
+      <c r="N22">
+        <v>244</v>
+      </c>
+      <c r="O22">
+        <v>543</v>
+      </c>
+      <c r="P22">
+        <v>473</v>
+      </c>
+      <c r="Q22">
+        <v>249</v>
+      </c>
+      <c r="R22">
+        <v>442</v>
+      </c>
+      <c r="S22">
         <v>341</v>
       </c>
-      <c r="B22">
+      <c r="T22">
         <v>351</v>
       </c>
-      <c r="C22">
+      <c r="U22">
         <v>465</v>
       </c>
-      <c r="D22">
+      <c r="V22">
         <v>315</v>
       </c>
-      <c r="E22">
+      <c r="W22">
         <v>114</v>
       </c>
-      <c r="F22">
+      <c r="X22">
         <v>178</v>
       </c>
-      <c r="G22">
+      <c r="Y22">
         <v>430</v>
       </c>
-      <c r="H22">
+      <c r="Z22">
         <v>224</v>
       </c>
-      <c r="I22">
+      <c r="AA22">
         <v>708</v>
       </c>
-      <c r="J22">
+      <c r="AB22">
         <v>127</v>
       </c>
-      <c r="K22">
+      <c r="AC22">
         <v>64.5</v>
       </c>
-      <c r="L22">
+      <c r="AD22">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>356</v>
+      </c>
+      <c r="B23">
+        <v>390</v>
+      </c>
+      <c r="C23">
+        <v>345</v>
+      </c>
+      <c r="D23">
+        <v>374</v>
+      </c>
+      <c r="E23">
+        <v>400</v>
+      </c>
+      <c r="F23">
+        <v>456</v>
+      </c>
+      <c r="G23">
+        <v>160</v>
+      </c>
+      <c r="H23">
+        <v>324</v>
+      </c>
+      <c r="I23">
+        <v>590</v>
+      </c>
+      <c r="J23">
+        <v>234</v>
+      </c>
+      <c r="K23">
+        <v>227</v>
+      </c>
+      <c r="L23">
+        <v>459</v>
+      </c>
+      <c r="M23">
+        <v>216</v>
+      </c>
+      <c r="N23">
+        <v>215</v>
+      </c>
+      <c r="O23">
+        <v>502</v>
+      </c>
+      <c r="P23">
+        <v>423</v>
+      </c>
+      <c r="Q23">
+        <v>210</v>
+      </c>
+      <c r="R23">
+        <v>373</v>
+      </c>
+      <c r="S23">
         <v>337</v>
       </c>
-      <c r="B23">
+      <c r="T23">
         <v>405</v>
       </c>
-      <c r="C23">
+      <c r="U23">
         <v>437</v>
       </c>
-      <c r="D23">
+      <c r="V23">
         <v>310</v>
       </c>
-      <c r="E23">
+      <c r="W23">
         <v>178</v>
       </c>
-      <c r="F23">
+      <c r="X23">
         <v>221</v>
       </c>
-      <c r="G23">
+      <c r="Y23">
         <v>430</v>
       </c>
-      <c r="H23">
+      <c r="Z23">
         <v>232</v>
       </c>
-      <c r="I23">
+      <c r="AA23">
         <v>715</v>
       </c>
-      <c r="J23">
+      <c r="AB23">
         <v>146</v>
       </c>
-      <c r="K23">
+      <c r="AC23">
         <v>71.7</v>
       </c>
-      <c r="L23">
+      <c r="AD23">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>375</v>
+      </c>
+      <c r="B24">
+        <v>362</v>
+      </c>
+      <c r="C24">
+        <v>372</v>
+      </c>
+      <c r="D24">
+        <v>354</v>
+      </c>
+      <c r="E24">
+        <v>437</v>
+      </c>
+      <c r="F24">
+        <v>438</v>
+      </c>
+      <c r="G24">
+        <v>134</v>
+      </c>
+      <c r="H24">
+        <v>267</v>
+      </c>
+      <c r="I24">
+        <v>594</v>
+      </c>
+      <c r="J24">
+        <v>199</v>
+      </c>
+      <c r="K24">
+        <v>193</v>
+      </c>
+      <c r="L24">
+        <v>435</v>
+      </c>
+      <c r="M24">
+        <v>179</v>
+      </c>
+      <c r="N24">
+        <v>204</v>
+      </c>
+      <c r="O24">
+        <v>431</v>
+      </c>
+      <c r="P24">
+        <v>378</v>
+      </c>
+      <c r="Q24">
+        <v>170</v>
+      </c>
+      <c r="R24">
+        <v>322</v>
+      </c>
+      <c r="S24">
         <v>327</v>
       </c>
-      <c r="B24">
+      <c r="T24">
         <v>476</v>
       </c>
-      <c r="C24">
+      <c r="U24">
         <v>403</v>
       </c>
-      <c r="D24">
+      <c r="V24">
         <v>304</v>
       </c>
-      <c r="E24">
+      <c r="W24">
         <v>204</v>
       </c>
-      <c r="F24">
+      <c r="X24">
         <v>276</v>
       </c>
-      <c r="G24">
+      <c r="Y24">
         <v>428</v>
       </c>
-      <c r="H24">
+      <c r="Z24">
         <v>278</v>
       </c>
-      <c r="I24">
+      <c r="AA24">
         <v>693</v>
       </c>
-      <c r="J24">
+      <c r="AB24">
         <v>165</v>
       </c>
-      <c r="K24">
+      <c r="AC24">
         <v>82.2</v>
       </c>
-      <c r="L24">
+      <c r="AD24">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>384</v>
+      </c>
+      <c r="B25">
+        <v>334</v>
+      </c>
+      <c r="C25">
+        <v>393</v>
+      </c>
+      <c r="D25">
+        <v>331</v>
+      </c>
+      <c r="E25">
+        <v>440</v>
+      </c>
+      <c r="F25">
+        <v>410</v>
+      </c>
+      <c r="G25">
+        <v>121</v>
+      </c>
+      <c r="H25">
+        <v>207</v>
+      </c>
+      <c r="I25">
+        <v>577</v>
+      </c>
+      <c r="J25">
+        <v>160</v>
+      </c>
+      <c r="K25">
+        <v>155</v>
+      </c>
+      <c r="L25">
+        <v>404</v>
+      </c>
+      <c r="M25">
+        <v>153</v>
+      </c>
+      <c r="N25">
+        <v>206</v>
+      </c>
+      <c r="O25">
+        <v>379</v>
+      </c>
+      <c r="P25">
+        <v>328</v>
+      </c>
+      <c r="Q25">
+        <v>148</v>
+      </c>
+      <c r="R25">
+        <v>285</v>
+      </c>
+      <c r="S25">
         <v>307</v>
       </c>
-      <c r="B25">
+      <c r="T25">
         <v>542</v>
       </c>
-      <c r="C25">
+      <c r="U25">
         <v>367</v>
       </c>
-      <c r="D25">
+      <c r="V25">
         <v>300</v>
       </c>
-      <c r="E25">
+      <c r="W25">
         <v>234</v>
       </c>
-      <c r="F25">
+      <c r="X25">
         <v>322</v>
       </c>
-      <c r="G25">
+      <c r="Y25">
         <v>433</v>
       </c>
-      <c r="H25">
+      <c r="Z25">
         <v>294</v>
       </c>
-      <c r="I25">
+      <c r="AA25">
         <v>675</v>
       </c>
-      <c r="J25">
+      <c r="AB25">
         <v>187</v>
       </c>
-      <c r="K25">
+      <c r="AC25">
         <v>95.8</v>
       </c>
-      <c r="L25">
+      <c r="AD25">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>386</v>
+      </c>
+      <c r="B26">
+        <v>303</v>
+      </c>
+      <c r="C26">
+        <v>414</v>
+      </c>
+      <c r="D26">
+        <v>301</v>
+      </c>
+      <c r="E26">
+        <v>424</v>
+      </c>
+      <c r="F26">
+        <v>382</v>
+      </c>
+      <c r="G26">
+        <v>119</v>
+      </c>
+      <c r="H26">
+        <v>158</v>
+      </c>
+      <c r="I26">
+        <v>536</v>
+      </c>
+      <c r="J26">
+        <v>132</v>
+      </c>
+      <c r="K26">
+        <v>117</v>
+      </c>
+      <c r="L26">
+        <v>392</v>
+      </c>
+      <c r="M26">
+        <v>129</v>
+      </c>
+      <c r="N26">
+        <v>218</v>
+      </c>
+      <c r="O26">
+        <v>340</v>
+      </c>
+      <c r="P26">
+        <v>299</v>
+      </c>
+      <c r="Q26">
+        <v>140</v>
+      </c>
+      <c r="R26">
+        <v>255</v>
+      </c>
+      <c r="S26">
         <v>276</v>
       </c>
-      <c r="B26">
+      <c r="T26">
         <v>578</v>
       </c>
-      <c r="C26">
+      <c r="U26">
         <v>324</v>
       </c>
-      <c r="D26">
+      <c r="V26">
         <v>303</v>
       </c>
-      <c r="E26">
+      <c r="W26">
         <v>260</v>
       </c>
-      <c r="F26">
+      <c r="X26">
         <v>395</v>
       </c>
-      <c r="G26">
+      <c r="Y26">
         <v>452</v>
       </c>
-      <c r="H26">
+      <c r="Z26">
         <v>319</v>
       </c>
-      <c r="I26">
+      <c r="AA26">
         <v>663</v>
       </c>
-      <c r="J26">
+      <c r="AB26">
         <v>201</v>
       </c>
-      <c r="K26">
+      <c r="AC26">
         <v>103</v>
       </c>
-      <c r="L26">
+      <c r="AD26">
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>348</v>
+      </c>
+      <c r="B27">
+        <v>266</v>
+      </c>
+      <c r="C27">
+        <v>420</v>
+      </c>
+      <c r="D27">
+        <v>271</v>
+      </c>
+      <c r="E27">
+        <v>394</v>
+      </c>
+      <c r="F27">
+        <v>350</v>
+      </c>
+      <c r="G27">
+        <v>147</v>
+      </c>
+      <c r="H27">
+        <v>110</v>
+      </c>
+      <c r="I27">
+        <v>505</v>
+      </c>
+      <c r="J27">
+        <v>109</v>
+      </c>
+      <c r="K27">
+        <v>94</v>
+      </c>
+      <c r="L27">
+        <v>396</v>
+      </c>
+      <c r="N27">
+        <v>229</v>
+      </c>
+      <c r="O27">
+        <v>299</v>
+      </c>
+      <c r="P27">
+        <v>265</v>
+      </c>
+      <c r="Q27">
+        <v>136</v>
+      </c>
+      <c r="R27">
+        <v>240</v>
+      </c>
+      <c r="S27">
         <v>234</v>
       </c>
-      <c r="B27">
+      <c r="T27">
         <v>584</v>
       </c>
-      <c r="C27">
+      <c r="U27">
         <v>280</v>
       </c>
-      <c r="D27">
+      <c r="V27">
         <v>313</v>
       </c>
-      <c r="E27">
+      <c r="W27">
         <v>283</v>
       </c>
-      <c r="F27">
+      <c r="X27">
         <v>477</v>
       </c>
-      <c r="G27">
+      <c r="Y27">
         <v>477</v>
       </c>
-      <c r="H27">
+      <c r="Z27">
         <v>352</v>
       </c>
-      <c r="I27">
+      <c r="AA27">
         <v>643</v>
       </c>
-      <c r="J27">
+      <c r="AB27">
         <v>218</v>
       </c>
-      <c r="K27">
+      <c r="AC27">
         <v>104</v>
       </c>
-      <c r="L27">
+      <c r="AD27">
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>342</v>
+      </c>
+      <c r="B28">
+        <v>220</v>
+      </c>
+      <c r="C28">
+        <v>420</v>
+      </c>
+      <c r="D28">
+        <v>241</v>
+      </c>
+      <c r="E28">
+        <v>367</v>
+      </c>
+      <c r="F28">
+        <v>322</v>
+      </c>
+      <c r="G28">
+        <v>154</v>
+      </c>
+      <c r="H28">
+        <v>81</v>
+      </c>
+      <c r="I28">
+        <v>465</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="K28">
+        <v>77</v>
+      </c>
+      <c r="L28">
+        <v>400</v>
+      </c>
+      <c r="N28">
+        <v>232</v>
+      </c>
+      <c r="O28">
+        <v>259</v>
+      </c>
+      <c r="P28">
+        <v>238</v>
+      </c>
+      <c r="R28">
+        <v>237</v>
+      </c>
+      <c r="S28">
         <v>182</v>
       </c>
-      <c r="B28">
+      <c r="T28">
         <v>572</v>
       </c>
-      <c r="C28">
+      <c r="U28">
         <v>231</v>
       </c>
-      <c r="D28">
+      <c r="V28">
         <v>322</v>
       </c>
-      <c r="E28">
+      <c r="W28">
         <v>300</v>
       </c>
-      <c r="F28">
+      <c r="X28">
         <v>549</v>
       </c>
-      <c r="G28">
+      <c r="Y28">
         <v>505</v>
       </c>
-      <c r="H28">
+      <c r="Z28">
         <v>392</v>
       </c>
-      <c r="I28">
+      <c r="AA28">
         <v>633</v>
       </c>
-      <c r="J28">
+      <c r="AB28">
         <v>240</v>
       </c>
-      <c r="K28">
+      <c r="AC28">
         <v>117</v>
       </c>
-      <c r="L28">
+      <c r="AD28">
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>326</v>
+      </c>
+      <c r="B29">
+        <v>181</v>
+      </c>
+      <c r="C29">
+        <v>418</v>
+      </c>
+      <c r="D29">
+        <v>221</v>
+      </c>
+      <c r="E29">
+        <v>336</v>
+      </c>
+      <c r="F29">
+        <v>286</v>
+      </c>
+      <c r="G29">
+        <v>156</v>
+      </c>
+      <c r="H29">
+        <v>70</v>
+      </c>
+      <c r="I29">
+        <v>420</v>
+      </c>
+      <c r="J29">
+        <v>96</v>
+      </c>
+      <c r="K29">
+        <v>66</v>
+      </c>
+      <c r="L29">
+        <v>406</v>
+      </c>
+      <c r="N29">
+        <v>220</v>
+      </c>
+      <c r="O29">
+        <v>225</v>
+      </c>
+      <c r="P29">
+        <v>194</v>
+      </c>
+      <c r="R29">
+        <v>237</v>
+      </c>
+      <c r="S29">
         <v>148</v>
       </c>
-      <c r="B29">
+      <c r="T29">
         <v>545</v>
       </c>
-      <c r="C29">
+      <c r="U29">
         <v>182</v>
       </c>
-      <c r="D29">
+      <c r="V29">
         <v>333</v>
       </c>
-      <c r="E29">
+      <c r="W29">
         <v>310</v>
       </c>
-      <c r="F29">
+      <c r="X29">
         <v>601</v>
       </c>
-      <c r="G29">
+      <c r="Y29">
         <v>524</v>
       </c>
-      <c r="H29">
+      <c r="Z29">
         <v>436</v>
       </c>
-      <c r="I29">
+      <c r="AA29">
         <v>628</v>
       </c>
-      <c r="J29">
+      <c r="AB29">
         <v>251</v>
       </c>
-      <c r="K29">
+      <c r="AC29">
         <v>145</v>
       </c>
-      <c r="L29">
+      <c r="AD29">
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>302</v>
+      </c>
+      <c r="B30">
+        <v>145</v>
+      </c>
+      <c r="C30">
+        <v>418</v>
+      </c>
+      <c r="D30">
+        <v>209</v>
+      </c>
+      <c r="E30">
+        <v>302</v>
+      </c>
+      <c r="F30">
+        <v>251</v>
+      </c>
+      <c r="G30">
+        <v>124</v>
+      </c>
+      <c r="H30">
+        <v>69</v>
+      </c>
+      <c r="I30">
+        <v>372</v>
+      </c>
+      <c r="K30">
+        <v>59</v>
+      </c>
+      <c r="L30">
+        <v>408</v>
+      </c>
+      <c r="N30">
+        <v>205</v>
+      </c>
+      <c r="O30">
+        <v>197</v>
+      </c>
+      <c r="P30">
+        <v>158</v>
+      </c>
+      <c r="R30">
+        <v>233</v>
+      </c>
+      <c r="S30">
         <v>129</v>
       </c>
-      <c r="B30">
+      <c r="T30">
         <v>503</v>
       </c>
-      <c r="C30">
+      <c r="U30">
         <v>154</v>
       </c>
-      <c r="D30">
+      <c r="V30">
         <v>339</v>
       </c>
-      <c r="E30">
+      <c r="W30">
         <v>318</v>
       </c>
-      <c r="F30">
+      <c r="X30">
         <v>629</v>
       </c>
-      <c r="G30">
+      <c r="Y30">
         <v>530</v>
       </c>
-      <c r="H30">
+      <c r="Z30">
         <v>475</v>
       </c>
-      <c r="I30">
+      <c r="AA30">
         <v>608</v>
       </c>
-      <c r="J30">
+      <c r="AB30">
         <v>289</v>
       </c>
-      <c r="K30">
+      <c r="AC30">
         <v>190</v>
       </c>
-      <c r="L30">
+      <c r="AD30">
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>275</v>
+      </c>
+      <c r="B31">
         <v>122</v>
       </c>
-      <c r="B31">
+      <c r="C31">
+        <v>418</v>
+      </c>
+      <c r="D31">
+        <v>197</v>
+      </c>
+      <c r="E31">
+        <v>272</v>
+      </c>
+      <c r="F31">
+        <v>222</v>
+      </c>
+      <c r="G31">
+        <v>119</v>
+      </c>
+      <c r="I31">
+        <v>327</v>
+      </c>
+      <c r="K31">
+        <v>57</v>
+      </c>
+      <c r="L31">
+        <v>394</v>
+      </c>
+      <c r="N31">
+        <v>185</v>
+      </c>
+      <c r="O31">
+        <v>190</v>
+      </c>
+      <c r="P31">
+        <v>131</v>
+      </c>
+      <c r="S31">
+        <v>122</v>
+      </c>
+      <c r="T31">
         <v>458</v>
       </c>
-      <c r="C31">
+      <c r="U31">
         <v>138</v>
       </c>
-      <c r="D31">
+      <c r="V31">
         <v>341</v>
       </c>
-      <c r="E31">
+      <c r="W31">
         <v>324</v>
       </c>
-      <c r="F31">
+      <c r="X31">
         <v>640</v>
       </c>
-      <c r="G31">
+      <c r="Y31">
         <v>536</v>
       </c>
-      <c r="H31">
+      <c r="Z31">
         <v>497</v>
       </c>
-      <c r="I31">
+      <c r="AA31">
         <v>590</v>
       </c>
-      <c r="J31">
+      <c r="AB31">
         <v>362</v>
       </c>
-      <c r="K31">
+      <c r="AC31">
         <v>225</v>
       </c>
-      <c r="L31">
+      <c r="AD31">
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>236</v>
+      </c>
       <c r="B32">
+        <v>106</v>
+      </c>
+      <c r="C32">
+        <v>406</v>
+      </c>
+      <c r="D32">
+        <v>181</v>
+      </c>
+      <c r="E32">
+        <v>251</v>
+      </c>
+      <c r="F32">
+        <v>207</v>
+      </c>
+      <c r="G32">
+        <v>114</v>
+      </c>
+      <c r="I32">
+        <v>286</v>
+      </c>
+      <c r="L32">
+        <v>377</v>
+      </c>
+      <c r="N32">
+        <v>163</v>
+      </c>
+      <c r="P32">
+        <v>117</v>
+      </c>
+      <c r="T32">
         <v>419</v>
       </c>
-      <c r="C32">
+      <c r="U32">
         <v>130</v>
       </c>
-      <c r="D32">
+      <c r="V32">
         <v>335</v>
       </c>
-      <c r="E32">
+      <c r="W32">
         <v>324</v>
       </c>
-      <c r="F32">
+      <c r="X32">
         <v>629</v>
       </c>
-      <c r="G32">
+      <c r="Y32">
         <v>527</v>
       </c>
-      <c r="H32">
+      <c r="Z32">
         <v>506</v>
       </c>
-      <c r="I32">
+      <c r="AA32">
         <v>533</v>
       </c>
-      <c r="J32">
+      <c r="AB32">
         <v>436</v>
       </c>
-      <c r="K32">
+      <c r="AC32">
         <v>255</v>
       </c>
-      <c r="L32">
+      <c r="AD32">
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>195</v>
+      </c>
       <c r="B33">
+        <v>95</v>
+      </c>
+      <c r="C33">
+        <v>390</v>
+      </c>
+      <c r="D33">
+        <v>164</v>
+      </c>
+      <c r="E33">
+        <v>233</v>
+      </c>
+      <c r="F33">
+        <v>206</v>
+      </c>
+      <c r="G33">
+        <v>111</v>
+      </c>
+      <c r="I33">
+        <v>253</v>
+      </c>
+      <c r="L33">
+        <v>358</v>
+      </c>
+      <c r="T33">
         <v>381</v>
       </c>
-      <c r="C33">
+      <c r="U33">
         <v>119</v>
       </c>
-      <c r="D33">
+      <c r="V33">
         <v>324</v>
       </c>
-      <c r="E33">
+      <c r="W33">
         <v>319</v>
       </c>
-      <c r="F33">
+      <c r="X33">
         <v>601</v>
       </c>
-      <c r="G33">
+      <c r="Y33">
         <v>511</v>
       </c>
-      <c r="H33">
+      <c r="Z33">
         <v>495</v>
       </c>
-      <c r="I33">
+      <c r="AA33">
         <v>453</v>
       </c>
-      <c r="J33">
+      <c r="AB33">
         <v>507</v>
       </c>
-      <c r="K33">
+      <c r="AC33">
         <v>287</v>
       </c>
-      <c r="L33">
+      <c r="AD33">
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>153</v>
+      </c>
       <c r="B34">
+        <v>89</v>
+      </c>
+      <c r="C34">
+        <v>370</v>
+      </c>
+      <c r="D34">
+        <v>142</v>
+      </c>
+      <c r="E34">
+        <v>228</v>
+      </c>
+      <c r="F34">
+        <v>203</v>
+      </c>
+      <c r="G34">
+        <v>137</v>
+      </c>
+      <c r="I34">
+        <v>225</v>
+      </c>
+      <c r="L34">
+        <v>345</v>
+      </c>
+      <c r="T34">
         <v>341</v>
       </c>
-      <c r="C34">
+      <c r="U34">
         <v>104</v>
       </c>
-      <c r="D34">
+      <c r="V34">
         <v>313</v>
       </c>
-      <c r="E34">
+      <c r="W34">
         <v>309</v>
       </c>
-      <c r="F34">
+      <c r="X34">
         <v>570</v>
       </c>
-      <c r="G34">
+      <c r="Y34">
         <v>482</v>
       </c>
-      <c r="H34">
+      <c r="Z34">
         <v>471</v>
       </c>
-      <c r="I34">
+      <c r="AA34">
         <v>386</v>
       </c>
-      <c r="J34">
+      <c r="AB34">
         <v>566</v>
       </c>
-      <c r="K34">
+      <c r="AC34">
         <v>314</v>
       </c>
-      <c r="L34">
+      <c r="AD34">
         <v>291</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>122</v>
+      </c>
       <c r="B35">
+        <v>84</v>
+      </c>
+      <c r="C35">
+        <v>348</v>
+      </c>
+      <c r="D35">
+        <v>123</v>
+      </c>
+      <c r="E35">
+        <v>217</v>
+      </c>
+      <c r="G35">
+        <v>146</v>
+      </c>
+      <c r="I35">
+        <v>207</v>
+      </c>
+      <c r="L35">
+        <v>327</v>
+      </c>
+      <c r="T35">
         <v>292</v>
       </c>
-      <c r="C35">
+      <c r="U35">
         <v>90</v>
       </c>
-      <c r="D35">
+      <c r="V35">
         <v>295</v>
       </c>
-      <c r="E35">
+      <c r="W35">
         <v>298</v>
       </c>
-      <c r="F35">
+      <c r="X35">
         <v>536</v>
       </c>
-      <c r="G35">
+      <c r="Y35">
         <v>449</v>
       </c>
-      <c r="H35">
+      <c r="Z35">
         <v>438</v>
       </c>
-      <c r="I35">
+      <c r="AA35">
         <v>336</v>
       </c>
-      <c r="J35">
+      <c r="AB35">
         <v>606</v>
       </c>
-      <c r="K35">
+      <c r="AC35">
         <v>340</v>
       </c>
-      <c r="L35">
+      <c r="AD35">
         <v>314</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>97</v>
+      </c>
+      <c r="C36">
+        <v>325</v>
+      </c>
+      <c r="D36">
+        <v>107</v>
+      </c>
+      <c r="E36">
+        <v>204</v>
+      </c>
+      <c r="G36">
+        <v>150</v>
+      </c>
+      <c r="I36">
+        <v>196</v>
+      </c>
+      <c r="L36">
+        <v>304</v>
+      </c>
+      <c r="T36">
         <v>239</v>
       </c>
-      <c r="C36" s="1">
+      <c r="U36">
         <v>76.400000000000006</v>
       </c>
-      <c r="D36">
+      <c r="V36">
         <v>270</v>
       </c>
-      <c r="E36">
+      <c r="W36">
         <v>285</v>
       </c>
-      <c r="F36">
+      <c r="X36">
         <v>505</v>
       </c>
-      <c r="G36">
+      <c r="Y36">
         <v>410</v>
       </c>
-      <c r="H36">
+      <c r="Z36">
         <v>400</v>
       </c>
-      <c r="I36">
+      <c r="AA36">
         <v>292</v>
       </c>
-      <c r="J36">
+      <c r="AB36">
         <v>631</v>
       </c>
-      <c r="K36">
+      <c r="AC36">
         <v>361</v>
       </c>
-      <c r="L36">
+      <c r="AD36">
         <v>349</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>89</v>
+      </c>
+      <c r="C37">
+        <v>298</v>
+      </c>
+      <c r="D37">
+        <v>94</v>
+      </c>
+      <c r="E37">
+        <v>189</v>
+      </c>
+      <c r="G37">
+        <v>155</v>
+      </c>
+      <c r="I37">
+        <v>190</v>
+      </c>
+      <c r="L37">
+        <v>280</v>
+      </c>
+      <c r="T37">
         <v>184</v>
       </c>
-      <c r="D37">
+      <c r="V37">
         <v>234</v>
       </c>
-      <c r="E37">
+      <c r="W37">
         <v>270</v>
       </c>
-      <c r="F37">
+      <c r="X37">
         <v>471</v>
       </c>
-      <c r="G37">
+      <c r="Y37">
         <v>380</v>
       </c>
-      <c r="H37">
+      <c r="Z37">
         <v>368</v>
       </c>
-      <c r="I37">
+      <c r="AA37">
         <v>250</v>
       </c>
-      <c r="J37">
+      <c r="AB37">
         <v>634</v>
       </c>
-      <c r="K37">
+      <c r="AC37">
         <v>378</v>
       </c>
-      <c r="L37">
+      <c r="AD37">
         <v>382</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>86</v>
+      </c>
+      <c r="C38">
+        <v>267</v>
+      </c>
+      <c r="E38">
+        <v>161</v>
+      </c>
+      <c r="G38">
+        <v>118</v>
+      </c>
+      <c r="L38">
+        <v>256</v>
+      </c>
+      <c r="T38">
         <v>138</v>
       </c>
-      <c r="D38">
+      <c r="V38">
         <v>204</v>
       </c>
-      <c r="E38">
+      <c r="W38">
         <v>258</v>
       </c>
-      <c r="F38">
+      <c r="X38">
         <v>441</v>
       </c>
-      <c r="G38">
+      <c r="Y38">
         <v>348</v>
       </c>
-      <c r="H38">
+      <c r="Z38">
         <v>329</v>
       </c>
-      <c r="I38">
+      <c r="AA38">
         <v>213</v>
       </c>
-      <c r="J38">
+      <c r="AB38">
         <v>597</v>
       </c>
-      <c r="K38">
+      <c r="AC38">
         <v>394</v>
       </c>
-      <c r="L38">
+      <c r="AD38">
         <v>404</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>239</v>
+      </c>
+      <c r="E39">
+        <v>136</v>
+      </c>
+      <c r="L39">
+        <v>231</v>
+      </c>
+      <c r="T39">
         <v>111</v>
       </c>
-      <c r="D39">
+      <c r="V39">
         <v>156</v>
       </c>
-      <c r="E39">
+      <c r="W39">
         <v>244</v>
       </c>
-      <c r="F39">
+      <c r="X39">
         <v>408</v>
       </c>
-      <c r="G39">
+      <c r="Y39">
         <v>321</v>
       </c>
-      <c r="H39">
+      <c r="Z39">
         <v>303</v>
       </c>
-      <c r="I39">
+      <c r="AA39">
         <v>180</v>
       </c>
-      <c r="J39">
+      <c r="AB39">
         <v>547</v>
       </c>
-      <c r="K39">
+      <c r="AC39">
         <v>402</v>
       </c>
-      <c r="L39">
+      <c r="AD39">
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>208</v>
+      </c>
+      <c r="E40">
+        <v>122</v>
+      </c>
+      <c r="L40">
+        <v>210</v>
+      </c>
+      <c r="T40">
         <v>95.6</v>
       </c>
-      <c r="D40">
+      <c r="V40">
         <v>103</v>
       </c>
-      <c r="E40">
+      <c r="W40">
         <v>221</v>
       </c>
-      <c r="F40">
+      <c r="X40">
         <v>380</v>
       </c>
-      <c r="G40">
+      <c r="Y40">
         <v>294</v>
       </c>
-      <c r="H40">
+      <c r="Z40">
         <v>276</v>
       </c>
-      <c r="I40">
+      <c r="AA40">
         <v>155</v>
       </c>
-      <c r="J40">
+      <c r="AB40">
         <v>532</v>
       </c>
-      <c r="K40">
+      <c r="AC40">
         <v>400</v>
       </c>
-      <c r="L40">
+      <c r="AD40">
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>182</v>
+      </c>
+      <c r="E41">
+        <v>115</v>
+      </c>
+      <c r="T41">
         <v>87.6</v>
       </c>
-      <c r="D41">
+      <c r="V41">
         <v>81.2</v>
       </c>
-      <c r="E41">
+      <c r="W41">
         <v>188</v>
       </c>
-      <c r="F41">
+      <c r="X41">
         <v>350</v>
       </c>
-      <c r="G41">
+      <c r="Y41">
         <v>258</v>
       </c>
-      <c r="H41">
+      <c r="Z41">
         <v>228</v>
       </c>
-      <c r="I41">
+      <c r="AA41">
         <v>136</v>
       </c>
-      <c r="J41">
+      <c r="AB41">
         <v>482</v>
       </c>
-      <c r="K41">
+      <c r="AC41">
         <v>392</v>
       </c>
-      <c r="L41">
+      <c r="AD41">
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>155</v>
+      </c>
+      <c r="T42">
         <v>81.2</v>
       </c>
-      <c r="D42">
+      <c r="V42">
         <v>69.099999999999994</v>
       </c>
-      <c r="E42">
+      <c r="W42">
         <v>158</v>
       </c>
-      <c r="F42">
+      <c r="X42">
         <v>325</v>
       </c>
-      <c r="G42">
+      <c r="Y42">
         <v>213</v>
       </c>
-      <c r="H42">
+      <c r="Z42">
         <v>160</v>
       </c>
-      <c r="I42">
+      <c r="AA42">
         <v>124</v>
       </c>
-      <c r="J42">
+      <c r="AB42">
         <v>434</v>
       </c>
-      <c r="K42">
+      <c r="AC42">
         <v>385</v>
       </c>
-      <c r="L42">
+      <c r="AD42">
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>132</v>
+      </c>
+      <c r="T43">
         <v>75.2</v>
       </c>
-      <c r="D43">
+      <c r="V43">
         <v>60</v>
       </c>
-      <c r="E43">
+      <c r="W43">
         <v>141</v>
       </c>
-      <c r="F43">
+      <c r="X43">
         <v>301</v>
       </c>
-      <c r="G43">
+      <c r="Y43">
         <v>158</v>
       </c>
-      <c r="H43">
+      <c r="Z43">
         <v>116</v>
       </c>
-      <c r="I43">
+      <c r="AA43">
         <v>118</v>
       </c>
-      <c r="J43">
+      <c r="AB43">
         <v>391</v>
       </c>
-      <c r="K43">
+      <c r="AC43">
         <v>372</v>
       </c>
-      <c r="L43">
+      <c r="AD43">
         <v>361</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D44">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>106</v>
+      </c>
+      <c r="V44">
         <v>53.7</v>
       </c>
-      <c r="E44" s="1">
+      <c r="W44">
         <v>138</v>
       </c>
-      <c r="F44">
+      <c r="X44">
         <v>267</v>
       </c>
-      <c r="G44">
+      <c r="Y44">
         <v>113</v>
       </c>
-      <c r="H44">
+      <c r="Z44">
         <v>96.6</v>
       </c>
-      <c r="I44" s="1">
+      <c r="AA44">
         <v>113</v>
       </c>
-      <c r="J44">
+      <c r="AB44">
         <v>378</v>
       </c>
-      <c r="K44">
+      <c r="AC44">
         <v>355</v>
       </c>
-      <c r="L44">
+      <c r="AD44">
         <v>343</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D45">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>93</v>
+      </c>
+      <c r="V45">
         <v>50.9</v>
       </c>
-      <c r="F45">
+      <c r="X45">
         <v>235</v>
       </c>
-      <c r="G45">
+      <c r="Y45">
         <v>82</v>
       </c>
-      <c r="H45">
+      <c r="Z45">
         <v>82.6</v>
       </c>
-      <c r="J45">
+      <c r="AB45">
         <v>364</v>
       </c>
-      <c r="K45">
+      <c r="AC45">
         <v>337</v>
       </c>
-      <c r="L45">
+      <c r="AD45">
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D46">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="V46">
         <v>46.7</v>
       </c>
-      <c r="F46">
+      <c r="X46">
         <v>204</v>
       </c>
-      <c r="G46" s="1">
+      <c r="Y46">
         <v>67.2</v>
       </c>
-      <c r="H46" s="1">
+      <c r="Z46">
         <v>73.5</v>
       </c>
-      <c r="J46">
+      <c r="AB46">
         <v>349</v>
       </c>
-      <c r="K46">
+      <c r="AC46">
         <v>317</v>
       </c>
-      <c r="L46">
+      <c r="AD46">
         <v>282</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D47">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="V47">
         <v>44</v>
       </c>
-      <c r="F47" s="1">
+      <c r="X47">
         <v>170</v>
       </c>
-      <c r="J47">
+      <c r="AB47">
         <v>337</v>
       </c>
-      <c r="K47">
+      <c r="AC47">
         <v>293</v>
       </c>
-      <c r="L47">
+      <c r="AD47">
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D48" s="1">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="V48">
         <v>43.5</v>
       </c>
-      <c r="J48">
+      <c r="AB48">
         <v>319</v>
       </c>
-      <c r="K48">
+      <c r="AC48">
         <v>258</v>
       </c>
-      <c r="L48">
+      <c r="AD48">
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J49">
+    <row r="49" spans="28:30" x14ac:dyDescent="0.25">
+      <c r="AB49">
         <v>301</v>
       </c>
-      <c r="K49">
+      <c r="AC49">
         <v>222</v>
       </c>
-      <c r="L49">
+      <c r="AD49">
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J50">
+    <row r="50" spans="28:30" x14ac:dyDescent="0.25">
+      <c r="AB50">
         <v>282</v>
       </c>
-      <c r="K50">
+      <c r="AC50">
         <v>186</v>
       </c>
-      <c r="L50">
+      <c r="AD50">
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J51" s="1">
+    <row r="51" spans="28:30" x14ac:dyDescent="0.25">
+      <c r="AB51">
         <v>257</v>
       </c>
-      <c r="K51">
+      <c r="AC51">
         <v>158</v>
       </c>
-      <c r="L51">
+      <c r="AD51">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="K52">
+    <row r="52" spans="28:30" x14ac:dyDescent="0.25">
+      <c r="AC52">
         <v>141</v>
       </c>
-      <c r="L52" s="1">
+      <c r="AD52">
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="K53" s="1">
+    <row r="53" spans="28:30" x14ac:dyDescent="0.25">
+      <c r="AC53">
         <v>124</v>
       </c>
     </row>
